--- a/biology/Botanique/Liste_des_espèces_du_genre_Euphorbia/Liste_des_espèces_du_genre_Euphorbia.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Euphorbia/Liste_des_espèces_du_genre_Euphorbia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Euphorbia</t>
+          <t>Liste_des_espèces_du_genre_Euphorbia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La liste des espèces du genre Euphorbia  (les euphorbes) comprend plus de 2000 noms d'espèces acceptées, ce qui fait de ce genre de loin le plus important de la famille des Euphorbiaceae, devant le genre Croton (environ 1200 espèces) et le place au quatrième rang des plus grands genres d'Angiospermes, derrière les genres Astragalus, Bulbophyllum et Psychotria. Selon la base de données The Plant List, 5661 espèces rattachées au genre Euphorbia ont été décrites, mais seuls 2046 épithètes désignent des espèces acceptées (y compris quelques sous-espèces et variétés), tandis que 3522 sont considérées comme des synonymes, et 93 comme mal appliquées[1].
+La liste des espèces du genre Euphorbia  (les euphorbes) comprend plus de 2000 noms d'espèces acceptées, ce qui fait de ce genre de loin le plus important de la famille des Euphorbiaceae, devant le genre Croton (environ 1200 espèces) et le place au quatrième rang des plus grands genres d'Angiospermes, derrière les genres Astragalus, Bulbophyllum et Psychotria. Selon la base de données The Plant List, 5661 espèces rattachées au genre Euphorbia ont été décrites, mais seuls 2046 épithètes désignent des espèces acceptées (y compris quelques sous-espèces et variétés), tandis que 3522 sont considérées comme des synonymes, et 93 comme mal appliquées.
 Ce genre comprend des plantes morphologiquement très diverses, depuis les espèces herbacées annuelles ou vivaces jusqu'à des plantes ligneuses, arbustes ou arbres, pouvant atteindre 20 mètres de haut. Ces plantes se caractérisent notamment par leur latex laiteux, souvent toxique, et leurs inflorescences d'un type particulier, le cyathium. De nombreuses espèces sont des plantes succulentes, souvent épineuses, qui présentent une certaine convergence avec les Cactaceae. Le genre Euphorbia, à la distribution très vaste, est présent dans toutes les régions tempérées, tropicales et subtropicales.
-De nombreuses espèces ont des applications comme plantes ornementales ou en médecine traditionnelle[2].
+De nombreuses espèces ont des applications comme plantes ornementales ou en médecine traditionnelle.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Euphorbia</t>
+          <t>Liste_des_espèces_du_genre_Euphorbia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
-          <t>Selon The Plant List            (16 août 2019)[3] :
+          <t>Selon The Plant List            (16 août 2019) :
 Sommaire :
 Haut – A
 B
@@ -1597,7 +1611,7 @@
 Euphorbia leistneri R.H.Archer
 Euphorbia lenensis Baikov
 Euphorbia lenewtonii S.Carter
-Eup</t>
+Euphor</t>
         </is>
       </c>
     </row>
